--- a/resources/experiment 2/metrics/MAPE/incidence/Ictus (INC).xlsx
+++ b/resources/experiment 2/metrics/MAPE/incidence/Ictus (INC).xlsx
@@ -465,7 +465,7 @@
         <v>1929829825410266</v>
       </c>
       <c r="C2" t="n">
-        <v>1929829825410266</v>
+        <v>1929829825410267</v>
       </c>
       <c r="D2" t="n">
         <v>1929829825410266</v>
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22198113728739.84</v>
+        <v>808712703994307.4</v>
       </c>
       <c r="C3" t="n">
-        <v>22198113728739.84</v>
+        <v>831209417375311</v>
       </c>
       <c r="D3" t="n">
-        <v>22198113728739.84</v>
+        <v>1375376561930154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>318885940557197.1</v>
+        <v>21487645573253.58</v>
       </c>
       <c r="C4" t="n">
-        <v>318838136829040.1</v>
+        <v>21660606614359.04</v>
       </c>
       <c r="D4" t="n">
-        <v>318838136829040.1</v>
+        <v>1583515623954792</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199375042713169.4</v>
+        <v>355598709141558.1</v>
       </c>
       <c r="C5" t="n">
-        <v>199375042713169.4</v>
+        <v>187770188586593.7</v>
       </c>
       <c r="D5" t="n">
-        <v>199375042713169.4</v>
+        <v>313645161278879.9</v>
       </c>
     </row>
   </sheetData>
